--- a/data/trans_orig/P36BPD02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42B6F85-39AC-4676-A0F8-F1EAD186B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{541180D7-539D-4A7B-89E9-22C48DCCDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E564E624-A53E-4DD9-9C50-28A62949E30C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97C4DA12-DFC3-4E20-A6FE-11E63FA3064C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>Dos o tres cucharadas</t>
@@ -104,28 +104,28 @@
     <t>51,3%</t>
   </si>
   <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>Cuatro o más cucharadas</t>
@@ -134,28 +134,28 @@
     <t>31,37%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,19 +167,19 @@
     <t>18,92%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>18,84%</t>
@@ -188,61 +188,61 @@
     <t>16,09%</t>
   </si>
   <si>
-    <t>22,08%</t>
+    <t>22,25%</t>
   </si>
   <si>
     <t>44,0%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>43,08%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>37,65%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -251,403 +251,403 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>47,52%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>46,0%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>46,74%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>39,97%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>41,17%</t>
   </si>
   <si>
     <t>43,25%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>13,24%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
     <t>46,99%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>45,91%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>36,86%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED736FF9-E781-4593-947E-8A38DB2D99B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9522DC-49F4-4D20-98EF-7758AC454377}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1861,7 +1861,7 @@
         <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>504</v>
@@ -1873,10 +1873,10 @@
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>807</v>
@@ -1885,13 +1885,13 @@
         <v>651029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>300029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>468</v>
@@ -1921,13 +1921,13 @@
         <v>299777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>727</v>
@@ -1936,13 +1936,13 @@
         <v>599806</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1998,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2010,13 +2010,13 @@
         <v>75329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -2025,13 +2025,13 @@
         <v>79583</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -2040,13 +2040,13 @@
         <v>154912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2061,13 @@
         <v>259707</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>468</v>
@@ -2076,13 +2076,13 @@
         <v>277363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>759</v>
@@ -2091,10 +2091,10 @@
         <v>537071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>141</v>
@@ -2300,10 +2300,10 @@
         <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2318,13 @@
         <v>249858</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>576</v>
@@ -2333,13 +2333,13 @@
         <v>424302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>947</v>
@@ -2348,13 +2348,13 @@
         <v>674159</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2422,13 @@
         <v>467662</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>771</v>
@@ -2437,13 +2437,13 @@
         <v>544058</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1262</v>
@@ -2455,10 +2455,10 @@
         <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2473,13 @@
         <v>1509145</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>2419</v>
@@ -2488,13 +2488,13 @@
         <v>1680681</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>3941</v>
@@ -2503,13 +2503,13 @@
         <v>3189826</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2524,13 @@
         <v>1234499</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>1968</v>
@@ -2539,13 +2539,13 @@
         <v>1436167</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M30" s="7">
         <v>3198</v>

--- a/data/trans_orig/P36BPD02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{541180D7-539D-4A7B-89E9-22C48DCCDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD27406-CA17-42C0-831C-98CEE642F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97C4DA12-DFC3-4E20-A6FE-11E63FA3064C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8E8C5B92-8D7B-4B84-A796-5242EB18F5A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="228">
   <si>
     <t>Población según la cantidad de aceite de oliva que consumen al día en 2023 (Tasa respuesta: 96,09%)</t>
   </si>
@@ -65,589 +65,658 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de dos cucharadas</t>
   </si>
   <si>
-    <t>17,33%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>Dos o tres cucharadas</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>Cuatro o más cucharadas</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>Dos o tres cucharadas</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>Cuatro o más cucharadas</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,8 +1131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9522DC-49F4-4D20-98EF-7758AC454377}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45DF674-2905-4D33-8FA8-3A873C09FE60}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1183,7 +1252,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>57147</v>
+        <v>54796</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1198,7 +1267,7 @@
         <v>58</v>
       </c>
       <c r="I4" s="7">
-        <v>89308</v>
+        <v>80797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1213,7 +1282,7 @@
         <v>92</v>
       </c>
       <c r="N4" s="7">
-        <v>146455</v>
+        <v>135593</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1234,7 +1303,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="7">
-        <v>169201</v>
+        <v>167246</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1249,7 +1318,7 @@
         <v>88</v>
       </c>
       <c r="I5" s="7">
-        <v>160837</v>
+        <v>136574</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1264,7 +1333,7 @@
         <v>167</v>
       </c>
       <c r="N5" s="7">
-        <v>330037</v>
+        <v>303819</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1285,7 +1354,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>103455</v>
+        <v>122445</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1300,7 +1369,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>84405</v>
+        <v>77557</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1315,7 +1384,7 @@
         <v>98</v>
       </c>
       <c r="N6" s="7">
-        <v>187860</v>
+        <v>200001</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1336,7 +1405,7 @@
         <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>329802</v>
+        <v>344487</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1351,7 +1420,7 @@
         <v>199</v>
       </c>
       <c r="I7" s="7">
-        <v>334551</v>
+        <v>294928</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1366,7 +1435,7 @@
         <v>357</v>
       </c>
       <c r="N7" s="7">
-        <v>664352</v>
+        <v>639414</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1389,7 +1458,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>78615</v>
+        <v>74902</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1404,7 +1473,7 @@
         <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>89152</v>
+        <v>79316</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1419,7 +1488,7 @@
         <v>156</v>
       </c>
       <c r="N8" s="7">
-        <v>167767</v>
+        <v>154218</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1440,7 +1509,7 @@
         <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>182825</v>
+        <v>175234</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1455,7 +1524,7 @@
         <v>186</v>
       </c>
       <c r="I9" s="7">
-        <v>204704</v>
+        <v>182270</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1470,7 +1539,7 @@
         <v>314</v>
       </c>
       <c r="N9" s="7">
-        <v>387529</v>
+        <v>357504</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1491,46 +1560,46 @@
         <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>154075</v>
+        <v>161032</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>181298</v>
+        <v>228847</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
       </c>
       <c r="N10" s="7">
-        <v>335373</v>
+        <v>389879</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,7 +1611,7 @@
         <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>415515</v>
+        <v>411167</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1626,7 @@
         <v>440</v>
       </c>
       <c r="I11" s="7">
-        <v>475154</v>
+        <v>490434</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1572,7 +1641,7 @@
         <v>734</v>
       </c>
       <c r="N11" s="7">
-        <v>890670</v>
+        <v>901601</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1586,7 +1655,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1595,46 +1664,46 @@
         <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>90532</v>
+        <v>85469</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>79238</v>
+        <v>73208</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
       </c>
       <c r="N12" s="7">
-        <v>169770</v>
+        <v>158677</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,46 +1715,46 @@
         <v>236</v>
       </c>
       <c r="D13" s="7">
-        <v>255660</v>
+        <v>240519</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>369</v>
       </c>
       <c r="I13" s="7">
-        <v>259811</v>
+        <v>236309</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>605</v>
       </c>
       <c r="N13" s="7">
-        <v>515471</v>
+        <v>476828</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,46 +1766,46 @@
         <v>191</v>
       </c>
       <c r="D14" s="7">
-        <v>191785</v>
+        <v>191491</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>337</v>
       </c>
       <c r="I14" s="7">
-        <v>225763</v>
+        <v>215607</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
       </c>
       <c r="N14" s="7">
-        <v>417547</v>
+        <v>407097</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1817,7 @@
         <v>529</v>
       </c>
       <c r="D15" s="7">
-        <v>537977</v>
+        <v>517479</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1832,7 @@
         <v>824</v>
       </c>
       <c r="I15" s="7">
-        <v>564812</v>
+        <v>525124</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1778,7 +1847,7 @@
         <v>1353</v>
       </c>
       <c r="N15" s="7">
-        <v>1102788</v>
+        <v>1042603</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1792,7 +1861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,46 +1870,46 @@
         <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>88731</v>
+        <v>86442</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>141</v>
       </c>
       <c r="I16" s="7">
-        <v>87885</v>
+        <v>80051</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>226</v>
       </c>
       <c r="N16" s="7">
-        <v>176615</v>
+        <v>166493</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,46 +1921,46 @@
         <v>303</v>
       </c>
       <c r="D17" s="7">
-        <v>310848</v>
+        <v>289520</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>504</v>
       </c>
       <c r="I17" s="7">
-        <v>340181</v>
+        <v>333101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>807</v>
       </c>
       <c r="N17" s="7">
-        <v>651029</v>
+        <v>622621</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,46 +1972,46 @@
         <v>259</v>
       </c>
       <c r="D18" s="7">
-        <v>300029</v>
+        <v>488512</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>468</v>
       </c>
       <c r="I18" s="7">
-        <v>299777</v>
+        <v>281608</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>727</v>
       </c>
       <c r="N18" s="7">
-        <v>599806</v>
+        <v>770121</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,7 +2023,7 @@
         <v>647</v>
       </c>
       <c r="D19" s="7">
-        <v>699607</v>
+        <v>864474</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1969,7 +2038,7 @@
         <v>1113</v>
       </c>
       <c r="I19" s="7">
-        <v>727843</v>
+        <v>694760</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1984,7 +2053,7 @@
         <v>1760</v>
       </c>
       <c r="N19" s="7">
-        <v>1427450</v>
+        <v>1559235</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1998,7 +2067,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2007,46 +2076,46 @@
         <v>87</v>
       </c>
       <c r="D20" s="7">
-        <v>75329</v>
+        <v>68584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
       </c>
       <c r="I20" s="7">
-        <v>79583</v>
+        <v>71814</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
       </c>
       <c r="N20" s="7">
-        <v>154912</v>
+        <v>140398</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,46 +2127,46 @@
         <v>291</v>
       </c>
       <c r="D21" s="7">
-        <v>259707</v>
+        <v>238676</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>468</v>
       </c>
       <c r="I21" s="7">
-        <v>277363</v>
+        <v>251453</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>759</v>
       </c>
       <c r="N21" s="7">
-        <v>537071</v>
+        <v>490129</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,46 +2178,46 @@
         <v>259</v>
       </c>
       <c r="D22" s="7">
-        <v>235298</v>
+        <v>226201</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>375</v>
       </c>
       <c r="I22" s="7">
-        <v>220622</v>
+        <v>206668</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>634</v>
       </c>
       <c r="N22" s="7">
-        <v>455920</v>
+        <v>432869</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2229,7 @@
         <v>637</v>
       </c>
       <c r="D23" s="7">
-        <v>570335</v>
+        <v>533461</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2244,7 @@
         <v>973</v>
       </c>
       <c r="I23" s="7">
-        <v>577568</v>
+        <v>529935</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2190,7 +2259,7 @@
         <v>1610</v>
       </c>
       <c r="N23" s="7">
-        <v>1147903</v>
+        <v>1063396</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2204,55 +2273,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>77308</v>
+        <v>37860</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>96</v>
+      </c>
+      <c r="I24" s="7">
+        <v>46245</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="7">
-        <v>229</v>
-      </c>
-      <c r="I24" s="7">
-        <v>118892</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>157</v>
+      </c>
+      <c r="N24" s="7">
+        <v>84104</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="7">
-        <v>351</v>
-      </c>
-      <c r="N24" s="7">
-        <v>196200</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2330,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>485</v>
+        <v>270</v>
       </c>
       <c r="D25" s="7">
-        <v>330904</v>
+        <v>172364</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>377</v>
+      </c>
+      <c r="I25" s="7">
+        <v>183316</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="7">
-        <v>804</v>
-      </c>
-      <c r="I25" s="7">
-        <v>437785</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>647</v>
+      </c>
+      <c r="N25" s="7">
+        <v>355680</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M25" s="7">
-        <v>1289</v>
-      </c>
-      <c r="N25" s="7">
-        <v>768689</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2381,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="D26" s="7">
-        <v>249858</v>
+        <v>139684</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>328</v>
+      </c>
+      <c r="I26" s="7">
+        <v>367388</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="7">
-        <v>576</v>
-      </c>
-      <c r="I26" s="7">
-        <v>424302</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>544</v>
+      </c>
+      <c r="N26" s="7">
+        <v>507072</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M26" s="7">
-        <v>947</v>
-      </c>
-      <c r="N26" s="7">
-        <v>674159</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,10 +2432,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>978</v>
+        <v>547</v>
       </c>
       <c r="D27" s="7">
-        <v>658070</v>
+        <v>349907</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2378,10 +2447,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1609</v>
+        <v>801</v>
       </c>
       <c r="I27" s="7">
-        <v>980978</v>
+        <v>596949</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2462,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2587</v>
+        <v>1348</v>
       </c>
       <c r="N27" s="7">
-        <v>1639048</v>
+        <v>946856</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2410,55 +2479,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>491</v>
+        <v>61</v>
       </c>
       <c r="D28" s="7">
-        <v>467662</v>
+        <v>33146</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>133</v>
+      </c>
+      <c r="I28" s="7">
+        <v>61062</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="7">
-        <v>771</v>
-      </c>
-      <c r="I28" s="7">
-        <v>544058</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="7">
-        <v>1262</v>
+        <v>194</v>
       </c>
       <c r="N28" s="7">
-        <v>1011720</v>
+        <v>94208</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,46 +2536,46 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1522</v>
+        <v>215</v>
       </c>
       <c r="D29" s="7">
-        <v>1509145</v>
+        <v>130866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>2419</v>
+        <v>427</v>
       </c>
       <c r="I29" s="7">
-        <v>1680681</v>
+        <v>208213</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>3941</v>
+        <v>642</v>
       </c>
       <c r="N29" s="7">
-        <v>3189826</v>
+        <v>339079</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>194</v>
@@ -2518,10 +2587,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1230</v>
+        <v>155</v>
       </c>
       <c r="D30" s="7">
-        <v>1234499</v>
+        <v>99622</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>195</v>
@@ -2533,10 +2602,10 @@
         <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>1968</v>
+        <v>248</v>
       </c>
       <c r="I30" s="7">
-        <v>1436167</v>
+        <v>125431</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>198</v>
@@ -2548,10 +2617,10 @@
         <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>3198</v>
+        <v>403</v>
       </c>
       <c r="N30" s="7">
-        <v>2670666</v>
+        <v>225053</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>201</v>
@@ -2560,7 +2629,7 @@
         <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,63 +2638,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>431</v>
+      </c>
+      <c r="D31" s="7">
+        <v>263634</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>808</v>
+      </c>
+      <c r="I31" s="7">
+        <v>394706</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1239</v>
+      </c>
+      <c r="N31" s="7">
+        <v>658340</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>491</v>
+      </c>
+      <c r="D32" s="7">
+        <v>441198</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="7">
+        <v>771</v>
+      </c>
+      <c r="I32" s="7">
+        <v>492494</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1262</v>
+      </c>
+      <c r="N32" s="7">
+        <v>933691</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1522</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1414425</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2419</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1531237</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3941</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2945662</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1230</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1428987</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1968</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1503105</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3198</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2932092</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3243</v>
       </c>
-      <c r="D31" s="7">
-        <v>3211306</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3284609</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5158</v>
       </c>
-      <c r="I31" s="7">
-        <v>3660906</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3526836</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8401</v>
       </c>
-      <c r="N31" s="7">
-        <v>6872212</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>6811445</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
